--- a/data/trans_orig/P13A_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P13A_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>8646</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4121</v>
+        <v>4365</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16140</v>
+        <v>16219</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.01257648801961455</v>
+        <v>0.01257648801961454</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005994390032439896</v>
+        <v>0.00634989234510074</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02347860172803334</v>
+        <v>0.02359290164935367</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>41</v>
@@ -762,19 +762,19 @@
         <v>26776</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18862</v>
+        <v>19891</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>39336</v>
+        <v>39739</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03660368256695453</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02578449196142103</v>
+        <v>0.02719206625788505</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05377274166760534</v>
+        <v>0.05432353241224285</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>51</v>
@@ -783,19 +783,19 @@
         <v>35422</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>25826</v>
+        <v>25320</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>48437</v>
+        <v>48145</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02496320298331827</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01820033076208805</v>
+        <v>0.01784401048247049</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03413520043874826</v>
+        <v>0.03392958407628162</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>15710</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9183</v>
+        <v>9964</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>25929</v>
+        <v>26633</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02285318964656007</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01335770079880992</v>
+        <v>0.01449467533747883</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03771816930872626</v>
+        <v>0.03874237899925102</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>74</v>
@@ -833,19 +833,19 @@
         <v>36489</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>28257</v>
+        <v>28126</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>46355</v>
+        <v>45625</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04988055968338739</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03862807533258598</v>
+        <v>0.0384490588077552</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0633677424360205</v>
+        <v>0.06237089025098377</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>92</v>
@@ -854,19 +854,19 @@
         <v>52199</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>40916</v>
+        <v>41928</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>64329</v>
+        <v>66044</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03678658200350462</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02883481513089752</v>
+        <v>0.02954840436413235</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04533477561212018</v>
+        <v>0.04654405708390113</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>101547</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>81074</v>
+        <v>83249</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>123657</v>
+        <v>124455</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1477152252492011</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1179353384691222</v>
+        <v>0.1210979459427529</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1798779569404673</v>
+        <v>0.1810385511897218</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>298</v>
@@ -904,19 +904,19 @@
         <v>169799</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>149825</v>
+        <v>151359</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>189070</v>
+        <v>189729</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2321185850443374</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2048135017402075</v>
+        <v>0.2069114332569671</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2584628594672327</v>
+        <v>0.2593633561090958</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>404</v>
@@ -925,19 +925,19 @@
         <v>271345</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>245271</v>
+        <v>245419</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>300382</v>
+        <v>301364</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1912276027638297</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1728519794193731</v>
+        <v>0.172956100487571</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2116909521766793</v>
+        <v>0.2123830803450766</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>561545</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>537659</v>
+        <v>535977</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>584019</v>
+        <v>580818</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.8168550970846243</v>
+        <v>0.8168550970846241</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7821081357755678</v>
+        <v>0.7796611646487495</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.849547155746963</v>
+        <v>0.8448899952083017</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>822</v>
@@ -975,19 +975,19 @@
         <v>498454</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>476144</v>
+        <v>475963</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>518551</v>
+        <v>518766</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.6813971727053207</v>
+        <v>0.6813971727053209</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6508988784963278</v>
+        <v>0.6506512989350022</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7088700687293591</v>
+        <v>0.709163521898009</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1414</v>
@@ -996,19 +996,19 @@
         <v>1060000</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1024245</v>
+        <v>1028463</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1087392</v>
+        <v>1087520</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7470226122493474</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7218250153877528</v>
+        <v>0.7247977712300944</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7663268953311118</v>
+        <v>0.766417207326425</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>14923</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7842</v>
+        <v>8053</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>25305</v>
+        <v>25123</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.01428131346160519</v>
+        <v>0.0142813134616052</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.007504453903630673</v>
+        <v>0.007706458669202463</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02421742569085822</v>
+        <v>0.02404265815067941</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>70</v>
@@ -1121,19 +1121,19 @@
         <v>50227</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>38849</v>
+        <v>38291</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>65051</v>
+        <v>66348</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04695480753128155</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03631818327022777</v>
+        <v>0.03579637619202526</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.06081360911665113</v>
+        <v>0.06202581377501576</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>84</v>
@@ -1142,19 +1142,19 @@
         <v>65150</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>51681</v>
+        <v>52877</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>81970</v>
+        <v>83023</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03080938582961714</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0244399480422474</v>
+        <v>0.02500562626146508</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03876371701181357</v>
+        <v>0.03926150045319707</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>17679</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10582</v>
+        <v>11391</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27470</v>
+        <v>29205</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01691909450806077</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01012674518933888</v>
+        <v>0.01090131651730534</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02628940471229805</v>
+        <v>0.02794941797929693</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>73</v>
@@ -1192,19 +1192,19 @@
         <v>52850</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>40530</v>
+        <v>41729</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>66470</v>
+        <v>67618</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04940690889406135</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03788955947317221</v>
+        <v>0.03901015423315624</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06213930338191048</v>
+        <v>0.06321284650703997</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>92</v>
@@ -1213,19 +1213,19 @@
         <v>70529</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>57945</v>
+        <v>56188</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>89101</v>
+        <v>87135</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03335323975451913</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02740232178165215</v>
+        <v>0.02657121680094002</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04213576027606267</v>
+        <v>0.04120604911304983</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>164430</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>140567</v>
+        <v>139814</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>195473</v>
+        <v>191652</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1573609093023838</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1345236717027725</v>
+        <v>0.1338038832838118</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1870696475092979</v>
+        <v>0.1834124632666239</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>377</v>
@@ -1263,19 +1263,19 @@
         <v>249118</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>225819</v>
+        <v>225589</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>274157</v>
+        <v>272216</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2328884412549245</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.21110793411266</v>
+        <v>0.2108925921247044</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2562965864117241</v>
+        <v>0.2544821793066602</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>526</v>
@@ -1284,19 +1284,19 @@
         <v>413547</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>378055</v>
+        <v>380179</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>450958</v>
+        <v>452442</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1955669398917928</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1787823844911903</v>
+        <v>0.179787145586851</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.213258637606117</v>
+        <v>0.2139603394647107</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>847889</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>816796</v>
+        <v>817734</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>873381</v>
+        <v>874768</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.8114386827279503</v>
+        <v>0.8114386827279502</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7816818835332352</v>
+        <v>0.7825802124964294</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8358342514978252</v>
+        <v>0.8371615810698801</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>994</v>
@@ -1334,19 +1334,19 @@
         <v>717492</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>690747</v>
+        <v>690761</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>743352</v>
+        <v>744114</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6707498423197326</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.645747626913612</v>
+        <v>0.6457609296673963</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6949253234920898</v>
+        <v>0.6956378704980964</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1772</v>
@@ -1355,19 +1355,19 @@
         <v>1565382</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1524926</v>
+        <v>1521789</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1603613</v>
+        <v>1601723</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.7402704345240708</v>
+        <v>0.7402704345240709</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7211390260306998</v>
+        <v>0.7196555052978049</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.758349854473891</v>
+        <v>0.7574562057665456</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>10392</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5226</v>
+        <v>5413</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>18773</v>
+        <v>18799</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01297125865740988</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0065230425402643</v>
+        <v>0.006756979627395913</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02343224406230266</v>
+        <v>0.02346408977806591</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>54</v>
@@ -1480,19 +1480,19 @@
         <v>37488</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>28023</v>
+        <v>28842</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>48593</v>
+        <v>47909</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.04641379465597664</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03469482852776852</v>
+        <v>0.03570878508294006</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06016231082140509</v>
+        <v>0.05931588039938831</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>64</v>
@@ -1501,19 +1501,19 @@
         <v>47880</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>35699</v>
+        <v>37395</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>61438</v>
+        <v>61103</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02976042869930191</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02218912054296233</v>
+        <v>0.02324337358196063</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03818750126630296</v>
+        <v>0.03797882203130994</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>24681</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>15690</v>
+        <v>15246</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>38326</v>
+        <v>38260</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.03080629620572025</v>
+        <v>0.03080629620572026</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01958365540924504</v>
+        <v>0.01903005391046263</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.04783734199681478</v>
+        <v>0.04775501736538836</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>55</v>
@@ -1551,19 +1551,19 @@
         <v>43529</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>33147</v>
+        <v>32694</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>57643</v>
+        <v>57511</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.05389281702806423</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.04103898290395558</v>
+        <v>0.04047823387489726</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.07136722604553136</v>
+        <v>0.07120395666232265</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>76</v>
@@ -1572,19 +1572,19 @@
         <v>68210</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>53296</v>
+        <v>54525</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>84848</v>
+        <v>87920</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.04239643170796283</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.03312670487826447</v>
+        <v>0.03389048007941606</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.05273810008439518</v>
+        <v>0.05464741056557051</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>168045</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>141497</v>
+        <v>144874</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>192753</v>
+        <v>195329</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.209751882978836</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1766149444929891</v>
+        <v>0.1808293533744869</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2405914089759042</v>
+        <v>0.2438070032408112</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>317</v>
@@ -1622,19 +1622,19 @@
         <v>246167</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>224182</v>
+        <v>221244</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>273488</v>
+        <v>270257</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3047769657909854</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2775572598307708</v>
+        <v>0.2739192730105495</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3386032104737023</v>
+        <v>0.3346021578513607</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>462</v>
@@ -1643,19 +1643,19 @@
         <v>414213</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>379902</v>
+        <v>377934</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>452780</v>
+        <v>445876</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2574573642152596</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2361311801108789</v>
+        <v>0.2349081274160527</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2814292819034709</v>
+        <v>0.2771383106418141</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>598045</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>571100</v>
+        <v>569242</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>624391</v>
+        <v>622857</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7464705621580338</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7128384999970157</v>
+        <v>0.7105199579675693</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.779355866245947</v>
+        <v>0.777440742088452</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>617</v>
@@ -1693,19 +1693,19 @@
         <v>480512</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>454709</v>
+        <v>454937</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>505249</v>
+        <v>506395</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5949164225249737</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.562970913067748</v>
+        <v>0.5632525075328845</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6255430593926882</v>
+        <v>0.6269617939958675</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1115</v>
@@ -1714,19 +1714,19 @@
         <v>1078556</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1037068</v>
+        <v>1042290</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1118831</v>
+        <v>1118717</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6703857753774756</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6445984926456154</v>
+        <v>0.647844460405153</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6954191172521493</v>
+        <v>0.6953477650754611</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>5948</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2554</v>
+        <v>2625</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11434</v>
+        <v>11256</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.006035139025618542</v>
+        <v>0.006035139025618544</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.002591404986606701</v>
+        <v>0.002663199373309944</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01160222485329079</v>
+        <v>0.0114215846942794</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>64</v>
@@ -1839,19 +1839,19 @@
         <v>49875</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>38386</v>
+        <v>37215</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>65208</v>
+        <v>63890</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04500476793484549</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03463764781588271</v>
+        <v>0.03358057142131352</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05884000575261317</v>
+        <v>0.05765076971416712</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>72</v>
@@ -1860,19 +1860,19 @@
         <v>55823</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>42757</v>
+        <v>43892</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>69970</v>
+        <v>72284</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.02666216743637775</v>
+        <v>0.02666216743637774</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02042167703797702</v>
+        <v>0.02096400331006353</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03341949871202844</v>
+        <v>0.03452440247042313</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>33796</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>22578</v>
+        <v>23309</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>48855</v>
+        <v>49706</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03429425171484647</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02291099300033484</v>
+        <v>0.02365246936035711</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04957477988742125</v>
+        <v>0.05043807960832282</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>109</v>
@@ -1910,19 +1910,19 @@
         <v>71565</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>58751</v>
+        <v>58683</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>86547</v>
+        <v>87710</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06457664391565528</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05301418450887354</v>
+        <v>0.05295274026698518</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07809537631697995</v>
+        <v>0.07914513208266634</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>141</v>
@@ -1931,19 +1931,19 @@
         <v>105361</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>87618</v>
+        <v>87395</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>125577</v>
+        <v>127458</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.0503230357129394</v>
+        <v>0.05032303571293939</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04184818949434496</v>
+        <v>0.04174177994897306</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05997862387486684</v>
+        <v>0.06087675385548801</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>152386</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>130139</v>
+        <v>130346</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>180897</v>
+        <v>179342</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1546311656551659</v>
+        <v>0.154631165655166</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1320560670466503</v>
+        <v>0.1322662707393943</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1835617186565153</v>
+        <v>0.1819835091341392</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>397</v>
@@ -1981,19 +1981,19 @@
         <v>283033</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>256057</v>
+        <v>257723</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>311587</v>
+        <v>310995</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2553950431720008</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2310529870591998</v>
+        <v>0.2325562377985755</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2811604788179246</v>
+        <v>0.2806264004470684</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>549</v>
@@ -2002,19 +2002,19 @@
         <v>435420</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>400891</v>
+        <v>399650</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>472867</v>
+        <v>469518</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2079665302068641</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1914746736678459</v>
+        <v>0.1908822060500741</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2258523005171043</v>
+        <v>0.2242526971927974</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>793353</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>763484</v>
+        <v>762089</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>818668</v>
+        <v>818760</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.8050394436043689</v>
+        <v>0.805039443604369</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.774730966381723</v>
+        <v>0.7733154333207978</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.83072801320666</v>
+        <v>0.8308208569135198</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>978</v>
@@ -2052,19 +2052,19 @@
         <v>703745</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>675358</v>
+        <v>674170</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>732075</v>
+        <v>732347</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6350235449774984</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.609408685168917</v>
+        <v>0.6083365878943471</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6605876780960376</v>
+        <v>0.6608329896560748</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1787</v>
@@ -2073,19 +2073,19 @@
         <v>1497097</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1453163</v>
+        <v>1458127</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1535231</v>
+        <v>1534814</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.7150482666438188</v>
+        <v>0.7150482666438187</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6940640565281527</v>
+        <v>0.6964352842333146</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7332619408288862</v>
+        <v>0.7330627239105931</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>39908</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>29053</v>
+        <v>29207</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>54103</v>
+        <v>54714</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01134071447310502</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.00825596437309384</v>
+        <v>0.008299648256392896</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.01537438538715443</v>
+        <v>0.01554821243917731</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>229</v>
@@ -2198,19 +2198,19 @@
         <v>164366</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>143410</v>
+        <v>144336</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>191484</v>
+        <v>188905</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.04421879642763867</v>
+        <v>0.04421879642763868</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03858099857924879</v>
+        <v>0.03882998942682016</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05151414906088121</v>
+        <v>0.05082023931515924</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>271</v>
@@ -2219,19 +2219,19 @@
         <v>204275</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>180310</v>
+        <v>177342</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>234266</v>
+        <v>230979</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02822980479224304</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02491796024695145</v>
+        <v>0.02450780826329259</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03237443274409432</v>
+        <v>0.03192025372255397</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>91867</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>73089</v>
+        <v>72196</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>112643</v>
+        <v>114826</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02610581770860988</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02076969624177138</v>
+        <v>0.02051601383538845</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03200977038386563</v>
+        <v>0.03263000778554936</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>311</v>
@@ -2269,19 +2269,19 @@
         <v>204432</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>181001</v>
+        <v>180803</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>231969</v>
+        <v>228870</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.05499755791139408</v>
+        <v>0.05499755791139409</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04869388833423685</v>
+        <v>0.04864077407019943</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06240550997747225</v>
+        <v>0.06157199699946698</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>401</v>
@@ -2290,19 +2290,19 @@
         <v>296299</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>266256</v>
+        <v>264413</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>329111</v>
+        <v>329081</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.04094717038960494</v>
+        <v>0.04094717038960496</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03679533549858605</v>
+        <v>0.03654058706545119</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04548158218692439</v>
+        <v>0.04547746360612297</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>586408</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>544011</v>
+        <v>542902</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>641615</v>
+        <v>638092</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1666398371824442</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1545918764826306</v>
+        <v>0.1542765665435555</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1823279217255855</v>
+        <v>0.1813267745519235</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1389</v>
@@ -2340,19 +2340,19 @@
         <v>948117</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>907100</v>
+        <v>899825</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>998544</v>
+        <v>991458</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2550677596760471</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2440330741996976</v>
+        <v>0.2420759182082962</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2686338899319402</v>
+        <v>0.2667276891170468</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1941</v>
@@ -2361,19 +2361,19 @@
         <v>1534525</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1468429</v>
+        <v>1465996</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1606727</v>
+        <v>1602129</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.212064237906108</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2029300682649942</v>
+        <v>0.2025937884606903</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2220421676699646</v>
+        <v>0.2214067018038248</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>2800833</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2742844</v>
+        <v>2745313</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2849058</v>
+        <v>2851510</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.7959136306358409</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7794349545605586</v>
+        <v>0.7801365590144244</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8096179431022933</v>
+        <v>0.8103145223560215</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>3411</v>
@@ -2411,19 +2411,19 @@
         <v>2400202</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>2345251</v>
+        <v>2346307</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>2448851</v>
+        <v>2451901</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.64571588598492</v>
+        <v>0.6457158859849201</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.6309325529150348</v>
+        <v>0.6312167658141088</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.6588036384081315</v>
+        <v>0.6596241972483212</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>6088</v>
@@ -2432,19 +2432,19 @@
         <v>5201035</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>5124835</v>
+        <v>5122147</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>5278647</v>
+        <v>5271688</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.7187587869120441</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.7082283685316715</v>
+        <v>0.7078568982485525</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.7294844726102714</v>
+        <v>0.7285227549250574</v>
       </c>
     </row>
     <row r="28">
